--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3335711.002158937</v>
+        <v>3333458.922447729</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877571</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>20.04683143499312</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>150.2062474346973</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>127.450398726549</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>191.5407999388248</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>147.0290144562265</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316079</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>60.2854354659979</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>61.16269384155272</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>174.1182300831009</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>27.24739666248492</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>107.5419779170878</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.64725059288514</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232816</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>154.8277789621973</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>134.5665975534139</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>72.97607332171654</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.0688644383635</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.584018541385</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.584018541385</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2735.557604112513</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.788948842398</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2009.323190581319</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1619.183858605507</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.054724415577</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>552.807938939214</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>552.807938939214</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1452.302651179084</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1452.302651179084</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1452.302651179084</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1162.885481142124</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>934.8959302441062</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.1033511005761</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.097994299123</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1827.135477358711</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1468.86977875196</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1083.081526153716</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>672.0956213641086</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>257.0231712091051</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339056</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2582.697834363245</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.780563451991</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1866.400168829909</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1644.633553399435</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1355.530686525078</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1100.846198319191</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>811.4290282822308</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>811.4290282822308</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>811.4290282822308</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,25 +5060,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>95.584050252739</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>95.584050252739</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>692.9625378792906</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.560501433897</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1872.470231673184</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2296.093381168252</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2318.136881002812</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,25 +5297,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>733.4550657171301</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>583.3384263047943</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>435.4253327224012</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>288.5353852244908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>121.3392859393708</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
         <v>343.0994656851783</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2313.467666357059</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.2677182139842</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>530.3315352860773</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,40 +6707,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>172.349019141113</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>229.7425191625314</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>229.7425191625314</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085632</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,16 +7494,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.8635921600919</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.713750098836414</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>113.047316183739</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>131.6952193743937</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>30.95754073885493</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>72.4449747012147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.76311574357379</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708864.4957548628</v>
+        <v>708864.4957548627</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26442,16 +26442,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11776.97621680577</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11776.97621680584</v>
+      </c>
+      <c r="N4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680583</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680583</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788705.1043992878</v>
+        <v>-788705.1043992875</v>
       </c>
       <c r="C6" t="n">
-        <v>540039.6413283052</v>
+        <v>540039.6413283051</v>
       </c>
       <c r="D6" t="n">
-        <v>540039.6413283048</v>
+        <v>540039.6413283047</v>
       </c>
       <c r="E6" t="n">
-        <v>288119.9718729375</v>
+        <v>288085.2339475012</v>
       </c>
       <c r="F6" t="n">
-        <v>613532.4336802926</v>
+        <v>613497.6957548565</v>
       </c>
       <c r="G6" t="n">
-        <v>613532.4336802921</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="H6" t="n">
-        <v>613532.4336802926</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="I6" t="n">
-        <v>613532.4336802923</v>
+        <v>613497.6957548565</v>
       </c>
       <c r="J6" t="n">
-        <v>396001.2312830149</v>
+        <v>395966.4933575792</v>
       </c>
       <c r="K6" t="n">
-        <v>613532.4336802923</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="L6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="M6" t="n">
-        <v>528477.4057447806</v>
+        <v>528442.6678193449</v>
       </c>
       <c r="N6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="O6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="P6" t="n">
-        <v>613532.4336802922</v>
+        <v>613497.6957548567</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747048</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>307.7054270351418</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0055907709156</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>254.4799713457128</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>28.00814933734443</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>147.578749931094</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>129.483589865444</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>169.6252075171361</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362267</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>624.2063432190395</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3773391483997</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>344.9857809048118</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>276.96469254416</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>206.1632388819608</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,7 +33980,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>194.5189324111251</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,7 +34226,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>23.94570355317219</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402486</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>485.6519634391653</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.39556506237817</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>205.0040068187903</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>79.32561221529411</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,7 +37628,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>55.9645526312509</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,25 +38093,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
